--- a/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Training/Training_Graphs.xlsx
+++ b/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Training/Training_Graphs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145267E7-F64D-4727-816D-55597145EBEF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297F9EC1-4759-4F60-8430-8CFB2BD2BB7B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
   <si>
     <t>Random</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>S - Avg Remaining Energy</t>
+  </si>
+  <si>
+    <t>Average 1+2</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>MW</t>
   </si>
 </sst>
 </file>
@@ -30227,8 +30236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="S58" sqref="S58"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -32040,8 +32049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70F2A5E-9A62-4830-8349-EF0EF7FD29A7}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AR20" sqref="AR20"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -33851,10 +33860,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B773E8A1-7A7D-4A41-B61C-400F911CA3D5}">
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:BN61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR22" sqref="AR22"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BM35" sqref="BM35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -33876,9 +33885,23 @@
     <col min="24" max="24" width="12.83984375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21.5234375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="21.62890625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.9453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.62890625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.9453125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="21.62890625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.9453125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -33942,8 +33965,62 @@
       <c r="Z1" t="s">
         <v>15</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33999,8 +34076,56 @@
         <f t="shared" si="0"/>
         <v>16.629999999999995</v>
       </c>
+      <c r="AS2">
+        <f>AVERAGE(W2,W3)</f>
+        <v>7.3049999999999997</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" ref="AT2:AV2" si="1">AVERAGE(X2,X3)</f>
+        <v>-31.5</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" si="1"/>
+        <v>-21.529999999999998</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" si="1"/>
+        <v>11.664999999999999</v>
+      </c>
+      <c r="BB2">
+        <f>W2</f>
+        <v>5</v>
+      </c>
+      <c r="BC2">
+        <f t="shared" ref="BC2:BE2" si="2">X2</f>
+        <v>-50</v>
+      </c>
+      <c r="BD2">
+        <f t="shared" si="2"/>
+        <v>-21.379999999999995</v>
+      </c>
+      <c r="BE2">
+        <f t="shared" si="2"/>
+        <v>16.629999999999995</v>
+      </c>
+      <c r="BK2">
+        <f>W3</f>
+        <v>9.61</v>
+      </c>
+      <c r="BL2">
+        <f t="shared" ref="BL2:BN2" si="3">X3</f>
+        <v>-13</v>
+      </c>
+      <c r="BM2">
+        <f t="shared" si="3"/>
+        <v>-21.68</v>
+      </c>
+      <c r="BN2">
+        <f t="shared" si="3"/>
+        <v>6.7000000000000028</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -34041,23 +34166,71 @@
         <v>56.93</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W61" si="1">P3-D3</f>
+        <f t="shared" ref="W3:W61" si="4">P3-D3</f>
         <v>9.61</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X61" si="2">Q3-E3</f>
+        <f t="shared" ref="X3:X61" si="5">Q3-E3</f>
         <v>-13</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y61" si="3">R3-F3</f>
+        <f t="shared" ref="Y3:Y61" si="6">R3-F3</f>
         <v>-21.68</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z61" si="4">S3-G3</f>
+        <f t="shared" ref="Z3:Z61" si="7">S3-G3</f>
         <v>6.7000000000000028</v>
       </c>
+      <c r="AS3">
+        <f>AVERAGE(W4,W5)</f>
+        <v>9.5799999999999983</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" ref="AT3:AV3" si="8">AVERAGE(X4,X5)</f>
+        <v>-37.5</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="8"/>
+        <v>-17.760000000000002</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="8"/>
+        <v>13.350000000000001</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" ref="BB3" si="9">W4</f>
+        <v>11.659999999999997</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" ref="BC3" si="10">X4</f>
+        <v>-58</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" ref="BD3" si="11">Y4</f>
+        <v>-16.230000000000004</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" ref="BE3" si="12">Z4</f>
+        <v>20.370000000000005</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" ref="BK3" si="13">W5</f>
+        <v>7.5</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" ref="BL3" si="14">X5</f>
+        <v>-17</v>
+      </c>
+      <c r="BM3">
+        <f t="shared" ref="BM3" si="15">Y5</f>
+        <v>-19.29</v>
+      </c>
+      <c r="BN3">
+        <f t="shared" ref="BN3" si="16">Z5</f>
+        <v>6.3299999999999983</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -34098,23 +34271,71 @@
         <v>64.760000000000005</v>
       </c>
       <c r="W4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.659999999999997</v>
       </c>
       <c r="X4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-58</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-16.230000000000004</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>20.370000000000005</v>
       </c>
+      <c r="AS4">
+        <f>AVERAGE(W6,W7)</f>
+        <v>10.489999999999998</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" ref="AT4:AV4" si="17">AVERAGE(X6,X7)</f>
+        <v>-26.5</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="17"/>
+        <v>-6.1650000000000009</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="17"/>
+        <v>9.7950000000000053</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" ref="BB4" si="18">W6</f>
+        <v>15</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" ref="BC4" si="19">X6</f>
+        <v>-34</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" ref="BD4" si="20">Y6</f>
+        <v>2.1400000000000006</v>
+      </c>
+      <c r="BE4">
+        <f t="shared" ref="BE4" si="21">Z6</f>
+        <v>12.180000000000007</v>
+      </c>
+      <c r="BK4">
+        <f t="shared" ref="BK4" si="22">W7</f>
+        <v>5.9799999999999986</v>
+      </c>
+      <c r="BL4">
+        <f t="shared" ref="BL4" si="23">X7</f>
+        <v>-19</v>
+      </c>
+      <c r="BM4">
+        <f t="shared" ref="BM4" si="24">Y7</f>
+        <v>-14.470000000000002</v>
+      </c>
+      <c r="BN4">
+        <f t="shared" ref="BN4" si="25">Z7</f>
+        <v>7.4100000000000037</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -34155,23 +34376,71 @@
         <v>48.93</v>
       </c>
       <c r="W5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-17</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-19.29</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.3299999999999983</v>
       </c>
+      <c r="AS5">
+        <f>AVERAGE(W8,W9)</f>
+        <v>17.484999999999999</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" ref="AT5:AV5" si="26">AVERAGE(X8,X9)</f>
+        <v>-48.5</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="26"/>
+        <v>-20.62</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="26"/>
+        <v>26.459999999999997</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" ref="BB5" si="27">W8</f>
+        <v>26.67</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" ref="BC5" si="28">X8</f>
+        <v>-72</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" ref="BD5" si="29">Y8</f>
+        <v>-17.64</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" ref="BE5" si="30">Z8</f>
+        <v>36.01</v>
+      </c>
+      <c r="BK5">
+        <f t="shared" ref="BK5" si="31">W9</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="BL5">
+        <f t="shared" ref="BL5" si="32">X9</f>
+        <v>-25</v>
+      </c>
+      <c r="BM5">
+        <f t="shared" ref="BM5" si="33">Y9</f>
+        <v>-23.6</v>
+      </c>
+      <c r="BN5">
+        <f t="shared" ref="BN5" si="34">Z9</f>
+        <v>16.909999999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -34212,23 +34481,71 @@
         <v>71.290000000000006</v>
       </c>
       <c r="W6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="X6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-34</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.1400000000000006</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.180000000000007</v>
       </c>
+      <c r="AS6">
+        <f>AVERAGE(W10,W11)</f>
+        <v>8.77</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" ref="AT6:AV6" si="35">AVERAGE(X10,X11)</f>
+        <v>-35.5</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="35"/>
+        <v>-15.515000000000001</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="35"/>
+        <v>13.985000000000003</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" ref="BB6" si="36">W10</f>
+        <v>11.659999999999998</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" ref="BC6" si="37">X10</f>
+        <v>-53</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" ref="BD6" si="38">Y10</f>
+        <v>-17.61</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" ref="BE6" si="39">Z10</f>
+        <v>17.630000000000003</v>
+      </c>
+      <c r="BK6">
+        <f t="shared" ref="BK6" si="40">W11</f>
+        <v>5.879999999999999</v>
+      </c>
+      <c r="BL6">
+        <f t="shared" ref="BL6" si="41">X11</f>
+        <v>-18</v>
+      </c>
+      <c r="BM6">
+        <f t="shared" ref="BM6" si="42">Y11</f>
+        <v>-13.420000000000002</v>
+      </c>
+      <c r="BN6">
+        <f t="shared" ref="BN6" si="43">Z11</f>
+        <v>10.340000000000003</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -34269,23 +34586,71 @@
         <v>53.02</v>
       </c>
       <c r="W7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.9799999999999986</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-19</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-14.470000000000002</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.4100000000000037</v>
       </c>
+      <c r="AS7">
+        <f>AVERAGE(W12,W13)</f>
+        <v>15.045</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" ref="AT7:AV7" si="44">AVERAGE(X12,X13)</f>
+        <v>-32.5</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="44"/>
+        <v>0.48999999999999844</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="44"/>
+        <v>11.875</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" ref="BB7" si="45">W12</f>
+        <v>20</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" ref="BC7" si="46">X12</f>
+        <v>-43</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" ref="BD7" si="47">Y12</f>
+        <v>13.009999999999998</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" ref="BE7" si="48">Z12</f>
+        <v>14.450000000000003</v>
+      </c>
+      <c r="BK7">
+        <f t="shared" ref="BK7" si="49">W13</f>
+        <v>10.09</v>
+      </c>
+      <c r="BL7">
+        <f t="shared" ref="BL7" si="50">X13</f>
+        <v>-22</v>
+      </c>
+      <c r="BM7">
+        <f t="shared" ref="BM7" si="51">Y13</f>
+        <v>-12.030000000000001</v>
+      </c>
+      <c r="BN7">
+        <f t="shared" ref="BN7" si="52">Z13</f>
+        <v>9.2999999999999972</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -34326,23 +34691,71 @@
         <v>70.38</v>
       </c>
       <c r="W8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26.67</v>
       </c>
       <c r="X8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-72</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-17.64</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>36.01</v>
       </c>
+      <c r="AS8">
+        <f>AVERAGE(W14,W15)</f>
+        <v>16.45</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" ref="AT8:AV8" si="53">AVERAGE(X14,X15)</f>
+        <v>-31.5</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="53"/>
+        <v>-6.42</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="53"/>
+        <v>13.900000000000002</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" ref="BB8" si="54">W14</f>
+        <v>25</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" ref="BC8" si="55">X14</f>
+        <v>-47</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" ref="BD8" si="56">Y14</f>
+        <v>-5.9100000000000037</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" ref="BE8" si="57">Z14</f>
+        <v>22.440000000000005</v>
+      </c>
+      <c r="BK8">
+        <f t="shared" ref="BK8" si="58">W15</f>
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="BL8">
+        <f t="shared" ref="BL8" si="59">X15</f>
+        <v>-16</v>
+      </c>
+      <c r="BM8">
+        <f t="shared" ref="BM8" si="60">Y15</f>
+        <v>-6.9299999999999962</v>
+      </c>
+      <c r="BN8">
+        <f t="shared" ref="BN8" si="61">Z15</f>
+        <v>5.3599999999999994</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -34383,23 +34796,71 @@
         <v>63.15</v>
       </c>
       <c r="W9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="X9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-25</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-23.6</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.909999999999997</v>
       </c>
+      <c r="AS9">
+        <f>AVERAGE(W16,W17)</f>
+        <v>15.944999999999999</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" ref="AT9:AV9" si="62">AVERAGE(X16,X17)</f>
+        <v>-27.5</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="62"/>
+        <v>-8.84</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="62"/>
+        <v>14.044999999999998</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" ref="BB9" si="63">W16</f>
+        <v>21.659999999999997</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" ref="BC9" si="64">X16</f>
+        <v>-41</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" ref="BD9" si="65">Y16</f>
+        <v>-3.6300000000000026</v>
+      </c>
+      <c r="BE9">
+        <f t="shared" ref="BE9" si="66">Z16</f>
+        <v>19.549999999999997</v>
+      </c>
+      <c r="BK9">
+        <f t="shared" ref="BK9" si="67">W17</f>
+        <v>10.23</v>
+      </c>
+      <c r="BL9">
+        <f t="shared" ref="BL9" si="68">X17</f>
+        <v>-14</v>
+      </c>
+      <c r="BM9">
+        <f t="shared" ref="BM9" si="69">Y17</f>
+        <v>-14.049999999999997</v>
+      </c>
+      <c r="BN9">
+        <f t="shared" ref="BN9" si="70">Z17</f>
+        <v>8.5399999999999991</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -34440,23 +34901,71 @@
         <v>62.64</v>
       </c>
       <c r="W10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.659999999999998</v>
       </c>
       <c r="X10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-53</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-17.61</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.630000000000003</v>
       </c>
+      <c r="AS10">
+        <f>AVERAGE(W18,W19)</f>
+        <v>2.8350000000000009</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" ref="AT10:AV10" si="71">AVERAGE(X18,X19)</f>
+        <v>-24</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="71"/>
+        <v>-13.634999999999998</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="71"/>
+        <v>9.18</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" ref="BB10" si="72">W18</f>
+        <v>-1.6599999999999966</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" ref="BC10" si="73">X18</f>
+        <v>-26</v>
+      </c>
+      <c r="BD10">
+        <f t="shared" ref="BD10" si="74">Y18</f>
+        <v>-6.3099999999999952</v>
+      </c>
+      <c r="BE10">
+        <f t="shared" ref="BE10" si="75">Z18</f>
+        <v>4.0499999999999972</v>
+      </c>
+      <c r="BK10">
+        <f t="shared" ref="BK10" si="76">W19</f>
+        <v>7.3299999999999983</v>
+      </c>
+      <c r="BL10">
+        <f t="shared" ref="BL10" si="77">X19</f>
+        <v>-22</v>
+      </c>
+      <c r="BM10">
+        <f t="shared" ref="BM10" si="78">Y19</f>
+        <v>-20.96</v>
+      </c>
+      <c r="BN10">
+        <f t="shared" ref="BN10" si="79">Z19</f>
+        <v>14.310000000000002</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -34497,23 +35006,71 @@
         <v>57.09</v>
       </c>
       <c r="W11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.879999999999999</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-18</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-13.420000000000002</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.340000000000003</v>
       </c>
+      <c r="AS11">
+        <f>AVERAGE(W20,W21)</f>
+        <v>8.6849999999999987</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" ref="AT11:AV11" si="80">AVERAGE(X20,X21)</f>
+        <v>-39</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="80"/>
+        <v>-26.415000000000003</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="80"/>
+        <v>21.055</v>
+      </c>
+      <c r="BB11">
+        <f t="shared" ref="BB11" si="81">W20</f>
+        <v>8.3299999999999983</v>
+      </c>
+      <c r="BC11">
+        <f t="shared" ref="BC11" si="82">X20</f>
+        <v>-52</v>
+      </c>
+      <c r="BD11">
+        <f t="shared" ref="BD11" si="83">Y20</f>
+        <v>-17.850000000000001</v>
+      </c>
+      <c r="BE11">
+        <f t="shared" ref="BE11" si="84">Z20</f>
+        <v>24.759999999999998</v>
+      </c>
+      <c r="BK11">
+        <f t="shared" ref="BK11" si="85">W21</f>
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="BL11">
+        <f t="shared" ref="BL11" si="86">X21</f>
+        <v>-26</v>
+      </c>
+      <c r="BM11">
+        <f t="shared" ref="BM11" si="87">Y21</f>
+        <v>-34.980000000000004</v>
+      </c>
+      <c r="BN11">
+        <f t="shared" ref="BN11" si="88">Z21</f>
+        <v>17.350000000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -34554,23 +35111,71 @@
         <v>65.64</v>
       </c>
       <c r="W12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-43</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13.009999999999998</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.450000000000003</v>
       </c>
+      <c r="AS12">
+        <f>AVERAGE(W22,W23)</f>
+        <v>10.19</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" ref="AT12:AV12" si="89">AVERAGE(X22,X23)</f>
+        <v>-30</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="89"/>
+        <v>-13.469999999999999</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="89"/>
+        <v>11.940000000000001</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" ref="BB12" si="90">W22</f>
+        <v>8.3299999999999983</v>
+      </c>
+      <c r="BC12">
+        <f t="shared" ref="BC12" si="91">X22</f>
+        <v>-51</v>
+      </c>
+      <c r="BD12">
+        <f t="shared" ref="BD12" si="92">Y22</f>
+        <v>-16.299999999999997</v>
+      </c>
+      <c r="BE12">
+        <f t="shared" ref="BE12" si="93">Z22</f>
+        <v>21.980000000000004</v>
+      </c>
+      <c r="BK12">
+        <f t="shared" ref="BK12" si="94">W23</f>
+        <v>12.05</v>
+      </c>
+      <c r="BL12">
+        <f t="shared" ref="BL12" si="95">X23</f>
+        <v>-9</v>
+      </c>
+      <c r="BM12">
+        <f t="shared" ref="BM12" si="96">Y23</f>
+        <v>-10.64</v>
+      </c>
+      <c r="BN12">
+        <f t="shared" ref="BN12" si="97">Z23</f>
+        <v>1.8999999999999986</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -34611,23 +35216,71 @@
         <v>55.07</v>
       </c>
       <c r="W13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.09</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-22</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-12.030000000000001</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.2999999999999972</v>
       </c>
+      <c r="AS13">
+        <f>AVERAGE(W24,W25)</f>
+        <v>12.58</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" ref="AT13:AV13" si="98">AVERAGE(X24,X25)</f>
+        <v>-42</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="98"/>
+        <v>-12.185000000000002</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="98"/>
+        <v>20.144999999999996</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" ref="BB13" si="99">W24</f>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" ref="BC13" si="100">X24</f>
+        <v>-51</v>
+      </c>
+      <c r="BD13">
+        <f t="shared" ref="BD13" si="101">Y24</f>
+        <v>-6.93</v>
+      </c>
+      <c r="BE13">
+        <f t="shared" ref="BE13" si="102">Z24</f>
+        <v>20.319999999999993</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" ref="BK13" si="103">W25</f>
+        <v>8.4899999999999984</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" ref="BL13" si="104">X25</f>
+        <v>-33</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" ref="BM13" si="105">Y25</f>
+        <v>-17.440000000000005</v>
+      </c>
+      <c r="BN13">
+        <f t="shared" ref="BN13" si="106">Z25</f>
+        <v>19.97</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -34668,23 +35321,71 @@
         <v>71.180000000000007</v>
       </c>
       <c r="W14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-47</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5.9100000000000037</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22.440000000000005</v>
       </c>
+      <c r="AS14">
+        <f>AVERAGE(W26,W27)</f>
+        <v>11.515000000000001</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" ref="AT14:AV14" si="107">AVERAGE(X26,X27)</f>
+        <v>-30</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="107"/>
+        <v>-9.4299999999999979</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="107"/>
+        <v>16.075000000000003</v>
+      </c>
+      <c r="BB14">
+        <f t="shared" ref="BB14" si="108">W26</f>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" ref="BC14" si="109">X26</f>
+        <v>-25</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" ref="BD14" si="110">Y26</f>
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" ref="BE14" si="111">Z26</f>
+        <v>10.740000000000009</v>
+      </c>
+      <c r="BK14">
+        <f t="shared" ref="BK14" si="112">W27</f>
+        <v>6.3599999999999994</v>
+      </c>
+      <c r="BL14">
+        <f t="shared" ref="BL14" si="113">X27</f>
+        <v>-35</v>
+      </c>
+      <c r="BM14">
+        <f t="shared" ref="BM14" si="114">Y27</f>
+        <v>-24.959999999999997</v>
+      </c>
+      <c r="BN14">
+        <f t="shared" ref="BN14" si="115">Z27</f>
+        <v>21.409999999999997</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -34725,23 +35426,71 @@
         <v>54.5</v>
       </c>
       <c r="W15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.8999999999999986</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-16</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.9299999999999962</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.3599999999999994</v>
       </c>
+      <c r="AS15">
+        <f>AVERAGE(W28,W29)</f>
+        <v>9.8249999999999993</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" ref="AT15:AV15" si="116">AVERAGE(X28,X29)</f>
+        <v>-25.5</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="116"/>
+        <v>-9.2799999999999994</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="116"/>
+        <v>11.385000000000002</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" ref="BB15" si="117">W28</f>
+        <v>11.659999999999997</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" ref="BC15" si="118">X28</f>
+        <v>-30</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" ref="BD15" si="119">Y28</f>
+        <v>1.4399999999999977</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" ref="BE15" si="120">Z28</f>
+        <v>10.18</v>
+      </c>
+      <c r="BK15">
+        <f t="shared" ref="BK15" si="121">W29</f>
+        <v>7.990000000000002</v>
+      </c>
+      <c r="BL15">
+        <f t="shared" ref="BL15" si="122">X29</f>
+        <v>-21</v>
+      </c>
+      <c r="BM15">
+        <f t="shared" ref="BM15" si="123">Y29</f>
+        <v>-19.999999999999996</v>
+      </c>
+      <c r="BN15">
+        <f t="shared" ref="BN15" si="124">Z29</f>
+        <v>12.590000000000003</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -34782,23 +35531,71 @@
         <v>69.08</v>
       </c>
       <c r="W16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21.659999999999997</v>
       </c>
       <c r="X16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-41</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.6300000000000026</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19.549999999999997</v>
       </c>
+      <c r="AS16">
+        <f>AVERAGE(W30,W31)</f>
+        <v>18.41</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" ref="AT16:AV16" si="125">AVERAGE(X30,X31)</f>
+        <v>-37</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="125"/>
+        <v>-9.2850000000000019</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="125"/>
+        <v>18.900000000000002</v>
+      </c>
+      <c r="BB16">
+        <f t="shared" ref="BB16" si="126">W30</f>
+        <v>26.67</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" ref="BC16" si="127">X30</f>
+        <v>-55</v>
+      </c>
+      <c r="BD16">
+        <f t="shared" ref="BD16" si="128">Y30</f>
+        <v>0.58999999999999631</v>
+      </c>
+      <c r="BE16">
+        <f t="shared" ref="BE16" si="129">Z30</f>
+        <v>21.980000000000004</v>
+      </c>
+      <c r="BK16">
+        <f t="shared" ref="BK16" si="130">W31</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="BL16">
+        <f t="shared" ref="BL16" si="131">X31</f>
+        <v>-19</v>
+      </c>
+      <c r="BM16">
+        <f t="shared" ref="BM16" si="132">Y31</f>
+        <v>-19.16</v>
+      </c>
+      <c r="BN16">
+        <f t="shared" ref="BN16" si="133">Z31</f>
+        <v>15.82</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -34839,23 +35636,71 @@
         <v>57.3</v>
       </c>
       <c r="W17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.23</v>
       </c>
       <c r="X17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-14</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-14.049999999999997</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.5399999999999991</v>
       </c>
+      <c r="AS17">
+        <f>AVERAGE(W32,W33)</f>
+        <v>11.339999999999998</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" ref="AT17:AV17" si="134">AVERAGE(X32,X33)</f>
+        <v>-30.5</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="134"/>
+        <v>-12.169999999999998</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="134"/>
+        <v>14.540000000000003</v>
+      </c>
+      <c r="BB17">
+        <f t="shared" ref="BB17" si="135">W32</f>
+        <v>11.659999999999997</v>
+      </c>
+      <c r="BC17">
+        <f t="shared" ref="BC17" si="136">X32</f>
+        <v>-42</v>
+      </c>
+      <c r="BD17">
+        <f t="shared" ref="BD17" si="137">Y32</f>
+        <v>-8.5399999999999991</v>
+      </c>
+      <c r="BE17">
+        <f t="shared" ref="BE17" si="138">Z32</f>
+        <v>19.860000000000007</v>
+      </c>
+      <c r="BK17">
+        <f t="shared" ref="BK17" si="139">W33</f>
+        <v>11.02</v>
+      </c>
+      <c r="BL17">
+        <f t="shared" ref="BL17" si="140">X33</f>
+        <v>-19</v>
+      </c>
+      <c r="BM17">
+        <f t="shared" ref="BM17" si="141">Y33</f>
+        <v>-15.799999999999997</v>
+      </c>
+      <c r="BN17">
+        <f t="shared" ref="BN17" si="142">Z33</f>
+        <v>9.2199999999999989</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -34896,23 +35741,71 @@
         <v>55.75</v>
       </c>
       <c r="W18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.6599999999999966</v>
       </c>
       <c r="X18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-26</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.3099999999999952</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.0499999999999972</v>
       </c>
+      <c r="AS18">
+        <f>AVERAGE(W34,W35)</f>
+        <v>13.885</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" ref="AT18:AV18" si="143">AVERAGE(X34,X35)</f>
+        <v>-42.5</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="143"/>
+        <v>-21.045000000000002</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="143"/>
+        <v>24.914999999999999</v>
+      </c>
+      <c r="BB18">
+        <f t="shared" ref="BB18" si="144">W34</f>
+        <v>21.67</v>
+      </c>
+      <c r="BC18">
+        <f t="shared" ref="BC18" si="145">X34</f>
+        <v>-48</v>
+      </c>
+      <c r="BD18">
+        <f t="shared" ref="BD18" si="146">Y34</f>
+        <v>-6.3400000000000034</v>
+      </c>
+      <c r="BE18">
+        <f t="shared" ref="BE18" si="147">Z34</f>
+        <v>26.849999999999994</v>
+      </c>
+      <c r="BK18">
+        <f t="shared" ref="BK18" si="148">W35</f>
+        <v>6.0999999999999979</v>
+      </c>
+      <c r="BL18">
+        <f t="shared" ref="BL18" si="149">X35</f>
+        <v>-37</v>
+      </c>
+      <c r="BM18">
+        <f t="shared" ref="BM18" si="150">Y35</f>
+        <v>-35.75</v>
+      </c>
+      <c r="BN18">
+        <f t="shared" ref="BN18" si="151">Z35</f>
+        <v>22.980000000000004</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -34953,23 +35846,71 @@
         <v>65.53</v>
       </c>
       <c r="W19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.3299999999999983</v>
       </c>
       <c r="X19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-22</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-20.96</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.310000000000002</v>
       </c>
+      <c r="AS19">
+        <f>AVERAGE(W36,W37)</f>
+        <v>6.7899999999999991</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" ref="AT19:AV19" si="152">AVERAGE(X36,X37)</f>
+        <v>-35</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="152"/>
+        <v>-18.21</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="152"/>
+        <v>13.704999999999998</v>
+      </c>
+      <c r="BB19">
+        <f t="shared" ref="BB19" si="153">W36</f>
+        <v>3.3299999999999983</v>
+      </c>
+      <c r="BC19">
+        <f t="shared" ref="BC19" si="154">X36</f>
+        <v>-37</v>
+      </c>
+      <c r="BD19">
+        <f t="shared" ref="BD19" si="155">Y36</f>
+        <v>-7</v>
+      </c>
+      <c r="BE19">
+        <f t="shared" ref="BE19" si="156">Z36</f>
+        <v>10.32</v>
+      </c>
+      <c r="BK19">
+        <f t="shared" ref="BK19" si="157">W37</f>
+        <v>10.25</v>
+      </c>
+      <c r="BL19">
+        <f t="shared" ref="BL19" si="158">X37</f>
+        <v>-33</v>
+      </c>
+      <c r="BM19">
+        <f t="shared" ref="BM19" si="159">Y37</f>
+        <v>-29.419999999999998</v>
+      </c>
+      <c r="BN19">
+        <f t="shared" ref="BN19" si="160">Z37</f>
+        <v>17.089999999999996</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -35010,23 +35951,71 @@
         <v>72.489999999999995</v>
       </c>
       <c r="W20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.3299999999999983</v>
       </c>
       <c r="X20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-52</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-17.850000000000001</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24.759999999999998</v>
       </c>
+      <c r="AS20">
+        <f>AVERAGE(W38,W39)</f>
+        <v>7.5699999999999985</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" ref="AT20:AV20" si="161">AVERAGE(X38,X39)</f>
+        <v>-32</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="161"/>
+        <v>-15.935</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="161"/>
+        <v>13.459999999999994</v>
+      </c>
+      <c r="BB20">
+        <f t="shared" ref="BB20" si="162">W38</f>
+        <v>3.3299999999999983</v>
+      </c>
+      <c r="BC20">
+        <f t="shared" ref="BC20" si="163">X38</f>
+        <v>-44</v>
+      </c>
+      <c r="BD20">
+        <f t="shared" ref="BD20" si="164">Y38</f>
+        <v>-13.469999999999999</v>
+      </c>
+      <c r="BE20">
+        <f t="shared" ref="BE20" si="165">Z38</f>
+        <v>19.459999999999994</v>
+      </c>
+      <c r="BK20">
+        <f t="shared" ref="BK20" si="166">W39</f>
+        <v>11.809999999999999</v>
+      </c>
+      <c r="BL20">
+        <f t="shared" ref="BL20" si="167">X39</f>
+        <v>-20</v>
+      </c>
+      <c r="BM20">
+        <f t="shared" ref="BM20" si="168">Y39</f>
+        <v>-18.400000000000002</v>
+      </c>
+      <c r="BN20">
+        <f t="shared" ref="BN20" si="169">Z39</f>
+        <v>7.4599999999999937</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -35067,23 +36056,71 @@
         <v>57.38</v>
       </c>
       <c r="W21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.0399999999999991</v>
       </c>
       <c r="X21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-26</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-34.980000000000004</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.350000000000001</v>
       </c>
+      <c r="AS21">
+        <f>AVERAGE(W40,W41)</f>
+        <v>13.465</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" ref="AT21:AV21" si="170">AVERAGE(X40,X41)</f>
+        <v>-32.5</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="170"/>
+        <v>-13.659999999999997</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" si="170"/>
+        <v>18.594999999999999</v>
+      </c>
+      <c r="BB21">
+        <f t="shared" ref="BB21" si="171">W40</f>
+        <v>20</v>
+      </c>
+      <c r="BC21">
+        <f t="shared" ref="BC21" si="172">X40</f>
+        <v>-43</v>
+      </c>
+      <c r="BD21">
+        <f t="shared" ref="BD21" si="173">Y40</f>
+        <v>-4.3099999999999952</v>
+      </c>
+      <c r="BE21">
+        <f t="shared" ref="BE21" si="174">Z40</f>
+        <v>20.54</v>
+      </c>
+      <c r="BK21">
+        <f t="shared" ref="BK21" si="175">W41</f>
+        <v>6.9300000000000015</v>
+      </c>
+      <c r="BL21">
+        <f t="shared" ref="BL21" si="176">X41</f>
+        <v>-22</v>
+      </c>
+      <c r="BM21">
+        <f t="shared" ref="BM21" si="177">Y41</f>
+        <v>-23.009999999999998</v>
+      </c>
+      <c r="BN21">
+        <f t="shared" ref="BN21" si="178">Z41</f>
+        <v>16.649999999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -35124,23 +36161,71 @@
         <v>69.790000000000006</v>
       </c>
       <c r="W22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.3299999999999983</v>
       </c>
       <c r="X22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-51</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-16.299999999999997</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>21.980000000000004</v>
       </c>
+      <c r="AS22">
+        <f>AVERAGE(W42,W43)</f>
+        <v>4.8950000000000014</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" ref="AT22:AV22" si="179">AVERAGE(X42,X43)</f>
+        <v>-30.5</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="179"/>
+        <v>-25.314999999999998</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="179"/>
+        <v>15.055</v>
+      </c>
+      <c r="BB22">
+        <f t="shared" ref="BB22" si="180">W42</f>
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <f t="shared" ref="BC22" si="181">X42</f>
+        <v>-40</v>
+      </c>
+      <c r="BD22">
+        <f t="shared" ref="BD22" si="182">Y42</f>
+        <v>-25.79</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" ref="BE22" si="183">Z42</f>
+        <v>21.58</v>
+      </c>
+      <c r="BK22">
+        <f t="shared" ref="BK22" si="184">W43</f>
+        <v>9.7900000000000027</v>
+      </c>
+      <c r="BL22">
+        <f t="shared" ref="BL22" si="185">X43</f>
+        <v>-21</v>
+      </c>
+      <c r="BM22">
+        <f t="shared" ref="BM22" si="186">Y43</f>
+        <v>-24.84</v>
+      </c>
+      <c r="BN22">
+        <f t="shared" ref="BN22" si="187">Z43</f>
+        <v>8.5300000000000011</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -35181,23 +36266,71 @@
         <v>52.4</v>
       </c>
       <c r="W23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.05</v>
       </c>
       <c r="X23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-10.64</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.8999999999999986</v>
       </c>
+      <c r="AS23">
+        <f>AVERAGE(W44,W45)</f>
+        <v>13.14</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" ref="AT23:AV23" si="188">AVERAGE(X44,X45)</f>
+        <v>-38.5</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="188"/>
+        <v>-20.189999999999998</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="188"/>
+        <v>22.794999999999998</v>
+      </c>
+      <c r="BB23">
+        <f t="shared" ref="BB23" si="189">W44</f>
+        <v>20</v>
+      </c>
+      <c r="BC23">
+        <f t="shared" ref="BC23" si="190">X44</f>
+        <v>-34</v>
+      </c>
+      <c r="BD23">
+        <f t="shared" ref="BD23" si="191">Y44</f>
+        <v>-3.25</v>
+      </c>
+      <c r="BE23">
+        <f t="shared" ref="BE23" si="192">Z44</f>
+        <v>17.589999999999996</v>
+      </c>
+      <c r="BK23">
+        <f t="shared" ref="BK23" si="193">W45</f>
+        <v>6.2800000000000011</v>
+      </c>
+      <c r="BL23">
+        <f t="shared" ref="BL23" si="194">X45</f>
+        <v>-43</v>
+      </c>
+      <c r="BM23">
+        <f t="shared" ref="BM23" si="195">Y45</f>
+        <v>-37.129999999999995</v>
+      </c>
+      <c r="BN23">
+        <f t="shared" ref="BN23" si="196">Z45</f>
+        <v>28</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -35238,23 +36371,71 @@
         <v>68.709999999999994</v>
       </c>
       <c r="W24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.670000000000002</v>
       </c>
       <c r="X24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-51</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.93</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>20.319999999999993</v>
       </c>
+      <c r="AS24">
+        <f>AVERAGE(W46,W47)</f>
+        <v>13.959999999999999</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" ref="AT24:AV24" si="197">AVERAGE(X46,X47)</f>
+        <v>-28.5</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="197"/>
+        <v>-13.149999999999999</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="197"/>
+        <v>14.16</v>
+      </c>
+      <c r="BB24">
+        <f t="shared" ref="BB24" si="198">W46</f>
+        <v>18.329999999999998</v>
+      </c>
+      <c r="BC24">
+        <f t="shared" ref="BC24" si="199">X46</f>
+        <v>-37</v>
+      </c>
+      <c r="BD24">
+        <f t="shared" ref="BD24" si="200">Y46</f>
+        <v>-8.14</v>
+      </c>
+      <c r="BE24">
+        <f t="shared" ref="BE24" si="201">Z46</f>
+        <v>17.629999999999995</v>
+      </c>
+      <c r="BK24">
+        <f t="shared" ref="BK24" si="202">W47</f>
+        <v>9.59</v>
+      </c>
+      <c r="BL24">
+        <f t="shared" ref="BL24" si="203">X47</f>
+        <v>-20</v>
+      </c>
+      <c r="BM24">
+        <f t="shared" ref="BM24" si="204">Y47</f>
+        <v>-18.159999999999997</v>
+      </c>
+      <c r="BN24">
+        <f t="shared" ref="BN24" si="205">Z47</f>
+        <v>10.690000000000005</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -35295,23 +36476,71 @@
         <v>61.86</v>
       </c>
       <c r="W25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.4899999999999984</v>
       </c>
       <c r="X25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-33</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-17.440000000000005</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19.97</v>
       </c>
+      <c r="AS25">
+        <f>AVERAGE(W48,W49)</f>
+        <v>5.1450000000000031</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" ref="AT25:AV25" si="206">AVERAGE(X48,X49)</f>
+        <v>-18.5</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="206"/>
+        <v>-7.3449999999999971</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="206"/>
+        <v>3.5150000000000041</v>
+      </c>
+      <c r="BB25">
+        <f t="shared" ref="BB25" si="207">W48</f>
+        <v>-1.6599999999999966</v>
+      </c>
+      <c r="BC25">
+        <f t="shared" ref="BC25" si="208">X48</f>
+        <v>-36</v>
+      </c>
+      <c r="BD25">
+        <f t="shared" ref="BD25" si="209">Y48</f>
+        <v>-15.629999999999999</v>
+      </c>
+      <c r="BE25">
+        <f t="shared" ref="BE25" si="210">Z48</f>
+        <v>15.310000000000009</v>
+      </c>
+      <c r="BK25">
+        <f t="shared" ref="BK25" si="211">W49</f>
+        <v>11.950000000000003</v>
+      </c>
+      <c r="BL25">
+        <f t="shared" ref="BL25" si="212">X49</f>
+        <v>-1</v>
+      </c>
+      <c r="BM25">
+        <f t="shared" ref="BM25" si="213">Y49</f>
+        <v>0.94000000000000483</v>
+      </c>
+      <c r="BN25">
+        <f t="shared" ref="BN25" si="214">Z49</f>
+        <v>-8.2800000000000011</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -35352,23 +36581,71 @@
         <v>64.400000000000006</v>
       </c>
       <c r="W26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.670000000000002</v>
       </c>
       <c r="X26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-25</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.1000000000000014</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.740000000000009</v>
       </c>
+      <c r="AS26">
+        <f>AVERAGE(W50,W51)</f>
+        <v>5.4299999999999979</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" ref="AT26:AV26" si="215">AVERAGE(X50,X51)</f>
+        <v>-33</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="215"/>
+        <v>-15.19</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="215"/>
+        <v>12.714999999999996</v>
+      </c>
+      <c r="BB26">
+        <f t="shared" ref="BB26" si="216">W50</f>
+        <v>8.3299999999999983</v>
+      </c>
+      <c r="BC26">
+        <f t="shared" ref="BC26" si="217">X50</f>
+        <v>-32</v>
+      </c>
+      <c r="BD26">
+        <f t="shared" ref="BD26" si="218">Y50</f>
+        <v>-11.670000000000002</v>
+      </c>
+      <c r="BE26">
+        <f t="shared" ref="BE26" si="219">Z50</f>
+        <v>10.729999999999997</v>
+      </c>
+      <c r="BK26">
+        <f t="shared" ref="BK26" si="220">W51</f>
+        <v>2.5299999999999976</v>
+      </c>
+      <c r="BL26">
+        <f t="shared" ref="BL26" si="221">X51</f>
+        <v>-34</v>
+      </c>
+      <c r="BM26">
+        <f t="shared" ref="BM26" si="222">Y51</f>
+        <v>-18.709999999999997</v>
+      </c>
+      <c r="BN26">
+        <f t="shared" ref="BN26" si="223">Z51</f>
+        <v>14.699999999999996</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -35409,23 +36686,71 @@
         <v>62.86</v>
       </c>
       <c r="W27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.3599999999999994</v>
       </c>
       <c r="X27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-35</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-24.959999999999997</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>21.409999999999997</v>
       </c>
+      <c r="AS27">
+        <f>AVERAGE(W52,W53)</f>
+        <v>13.865</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" ref="AT27:AV27" si="224">AVERAGE(X52,X53)</f>
+        <v>-29</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="224"/>
+        <v>-9.6349999999999962</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="224"/>
+        <v>10.679999999999996</v>
+      </c>
+      <c r="BB27">
+        <f t="shared" ref="BB27" si="225">W52</f>
+        <v>15</v>
+      </c>
+      <c r="BC27">
+        <f t="shared" ref="BC27" si="226">X52</f>
+        <v>-54</v>
+      </c>
+      <c r="BD27">
+        <f t="shared" ref="BD27" si="227">Y52</f>
+        <v>-11.779999999999994</v>
+      </c>
+      <c r="BE27">
+        <f t="shared" ref="BE27" si="228">Z52</f>
+        <v>22.599999999999994</v>
+      </c>
+      <c r="BK27">
+        <f t="shared" ref="BK27" si="229">W53</f>
+        <v>12.73</v>
+      </c>
+      <c r="BL27">
+        <f t="shared" ref="BL27" si="230">X53</f>
+        <v>-4</v>
+      </c>
+      <c r="BM27">
+        <f t="shared" ref="BM27" si="231">Y53</f>
+        <v>-7.4899999999999984</v>
+      </c>
+      <c r="BN27">
+        <f t="shared" ref="BN27" si="232">Z53</f>
+        <v>-1.240000000000002</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -35466,23 +36791,71 @@
         <v>62.79</v>
       </c>
       <c r="W28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.659999999999997</v>
       </c>
       <c r="X28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-30</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4399999999999977</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.18</v>
       </c>
+      <c r="AS28">
+        <f>AVEDEV(W54,W55)</f>
+        <v>8.5350000000000001</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" ref="AT28:AV28" si="233">AVEDEV(X54,X55)</f>
+        <v>1</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="233"/>
+        <v>13.37</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="233"/>
+        <v>0.42500000000000071</v>
+      </c>
+      <c r="BB28">
+        <f t="shared" ref="BB28" si="234">W54</f>
+        <v>26.67</v>
+      </c>
+      <c r="BC28">
+        <f t="shared" ref="BC28" si="235">X54</f>
+        <v>-14</v>
+      </c>
+      <c r="BD28">
+        <f t="shared" ref="BD28" si="236">Y54</f>
+        <v>15.229999999999997</v>
+      </c>
+      <c r="BE28">
+        <f t="shared" ref="BE28" si="237">Z54</f>
+        <v>7.5900000000000034</v>
+      </c>
+      <c r="BK28">
+        <f t="shared" ref="BK28" si="238">W55</f>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="BL28">
+        <f t="shared" ref="BL28" si="239">X55</f>
+        <v>-16</v>
+      </c>
+      <c r="BM28">
+        <f t="shared" ref="BM28" si="240">Y55</f>
+        <v>-11.510000000000002</v>
+      </c>
+      <c r="BN28">
+        <f t="shared" ref="BN28" si="241">Z55</f>
+        <v>6.740000000000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -35523,23 +36896,71 @@
         <v>58.17</v>
       </c>
       <c r="W29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.990000000000002</v>
       </c>
       <c r="X29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-21</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-19.999999999999996</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.590000000000003</v>
       </c>
+      <c r="AS29">
+        <f>AVERAGE(W56,W57)</f>
+        <v>4.6949999999999994</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" ref="AT29:AV29" si="242">AVERAGE(X56,X57)</f>
+        <v>-21</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="242"/>
+        <v>-13.11</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="242"/>
+        <v>7.125</v>
+      </c>
+      <c r="BB29">
+        <f t="shared" ref="BB29" si="243">W56</f>
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <f t="shared" ref="BC29" si="244">X56</f>
+        <v>-29</v>
+      </c>
+      <c r="BD29">
+        <f t="shared" ref="BD29" si="245">Y56</f>
+        <v>-15.979999999999997</v>
+      </c>
+      <c r="BE29">
+        <f t="shared" ref="BE29" si="246">Z56</f>
+        <v>11.75</v>
+      </c>
+      <c r="BK29">
+        <f t="shared" ref="BK29" si="247">W57</f>
+        <v>9.3899999999999988</v>
+      </c>
+      <c r="BL29">
+        <f t="shared" ref="BL29" si="248">X57</f>
+        <v>-13</v>
+      </c>
+      <c r="BM29">
+        <f t="shared" ref="BM29" si="249">Y57</f>
+        <v>-10.240000000000002</v>
+      </c>
+      <c r="BN29">
+        <f t="shared" ref="BN29" si="250">Z57</f>
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -35580,23 +37001,71 @@
         <v>67.48</v>
       </c>
       <c r="W30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26.67</v>
       </c>
       <c r="X30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-55</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58999999999999631</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>21.980000000000004</v>
       </c>
+      <c r="AS30">
+        <f>AVERAGE(W58,W59)</f>
+        <v>3.1650000000000009</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" ref="AT30:AV30" si="251">AVERAGE(X58,X59)</f>
+        <v>-24.5</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="251"/>
+        <v>-12.275</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="251"/>
+        <v>12.245000000000001</v>
+      </c>
+      <c r="BB30">
+        <f t="shared" ref="BB30" si="252">W58</f>
+        <v>1.6700000000000017</v>
+      </c>
+      <c r="BC30">
+        <f t="shared" ref="BC30" si="253">X58</f>
+        <v>-30</v>
+      </c>
+      <c r="BD30">
+        <f t="shared" ref="BD30" si="254">Y58</f>
+        <v>-20.270000000000003</v>
+      </c>
+      <c r="BE30">
+        <f t="shared" ref="BE30" si="255">Z58</f>
+        <v>14.200000000000003</v>
+      </c>
+      <c r="BK30">
+        <f t="shared" ref="BK30" si="256">W59</f>
+        <v>4.66</v>
+      </c>
+      <c r="BL30">
+        <f t="shared" ref="BL30" si="257">X59</f>
+        <v>-19</v>
+      </c>
+      <c r="BM30">
+        <f t="shared" ref="BM30" si="258">Y59</f>
+        <v>-4.2799999999999976</v>
+      </c>
+      <c r="BN30">
+        <f t="shared" ref="BN30" si="259">Z59</f>
+        <v>10.29</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -35637,23 +37106,71 @@
         <v>59.62</v>
       </c>
       <c r="W31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.149999999999999</v>
       </c>
       <c r="X31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-19</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-19.16</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.82</v>
       </c>
+      <c r="AS31">
+        <f>AVERAGE(W60,W61)</f>
+        <v>9.4050000000000011</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" ref="AT31:AV31" si="260">AVERAGE(X60,X61)</f>
+        <v>-28.5</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="260"/>
+        <v>-13.9</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="260"/>
+        <v>13.840000000000003</v>
+      </c>
+      <c r="BB31">
+        <f t="shared" ref="BB31" si="261">W60</f>
+        <v>11.670000000000002</v>
+      </c>
+      <c r="BC31">
+        <f t="shared" ref="BC31" si="262">X60</f>
+        <v>-31</v>
+      </c>
+      <c r="BD31">
+        <f t="shared" ref="BD31" si="263">Y60</f>
+        <v>-9.9699999999999989</v>
+      </c>
+      <c r="BE31">
+        <f t="shared" ref="BE31" si="264">Z60</f>
+        <v>16.730000000000004</v>
+      </c>
+      <c r="BK31">
+        <f t="shared" ref="BK31" si="265">W61</f>
+        <v>7.1400000000000006</v>
+      </c>
+      <c r="BL31">
+        <f t="shared" ref="BL31" si="266">X61</f>
+        <v>-26</v>
+      </c>
+      <c r="BM31">
+        <f t="shared" ref="BM31" si="267">Y61</f>
+        <v>-17.830000000000002</v>
+      </c>
+      <c r="BN31">
+        <f t="shared" ref="BN31" si="268">Z61</f>
+        <v>10.950000000000003</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -35694,19 +37211,19 @@
         <v>64.400000000000006</v>
       </c>
       <c r="W32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.659999999999997</v>
       </c>
       <c r="X32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-42</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-8.5399999999999991</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19.860000000000007</v>
       </c>
     </row>
@@ -35751,19 +37268,19 @@
         <v>54.67</v>
       </c>
       <c r="W33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.02</v>
       </c>
       <c r="X33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-19</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-15.799999999999997</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.2199999999999989</v>
       </c>
     </row>
@@ -35808,19 +37325,19 @@
         <v>76.16</v>
       </c>
       <c r="W34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21.67</v>
       </c>
       <c r="X34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-48</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.3400000000000034</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>26.849999999999994</v>
       </c>
     </row>
@@ -35865,19 +37382,19 @@
         <v>66.14</v>
       </c>
       <c r="W35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.0999999999999979</v>
       </c>
       <c r="X35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-37</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-35.75</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22.980000000000004</v>
       </c>
     </row>
@@ -35922,19 +37439,19 @@
         <v>60.99</v>
       </c>
       <c r="W36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.3299999999999983</v>
       </c>
       <c r="X36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-37</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.32</v>
       </c>
     </row>
@@ -35979,19 +37496,19 @@
         <v>53.16</v>
       </c>
       <c r="W37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.25</v>
       </c>
       <c r="X37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-33</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-29.419999999999998</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.089999999999996</v>
       </c>
     </row>
@@ -36036,19 +37553,19 @@
         <v>76.739999999999995</v>
       </c>
       <c r="W38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.3299999999999983</v>
       </c>
       <c r="X38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-44</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-13.469999999999999</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19.459999999999994</v>
       </c>
     </row>
@@ -36093,19 +37610,19 @@
         <v>47.48</v>
       </c>
       <c r="W39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.809999999999999</v>
       </c>
       <c r="X39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-20</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-18.400000000000002</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.4599999999999937</v>
       </c>
     </row>
@@ -36150,19 +37667,19 @@
         <v>75.27</v>
       </c>
       <c r="W40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="X40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-43</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-4.3099999999999952</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>20.54</v>
       </c>
     </row>
@@ -36207,19 +37724,19 @@
         <v>63.01</v>
       </c>
       <c r="W41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.9300000000000015</v>
       </c>
       <c r="X41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-22</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-23.009999999999998</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.649999999999999</v>
       </c>
     </row>
@@ -36264,19 +37781,19 @@
         <v>72.27</v>
       </c>
       <c r="W42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-40</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-25.79</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>21.58</v>
       </c>
     </row>
@@ -36321,19 +37838,19 @@
         <v>52.85</v>
       </c>
       <c r="W43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.7900000000000027</v>
       </c>
       <c r="X43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-21</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-24.84</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.5300000000000011</v>
       </c>
     </row>
@@ -36378,19 +37895,19 @@
         <v>70.58</v>
       </c>
       <c r="W44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="X44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-34</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.25</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.589999999999996</v>
       </c>
     </row>
@@ -36435,19 +37952,19 @@
         <v>61.57</v>
       </c>
       <c r="W45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.2800000000000011</v>
       </c>
       <c r="X45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-43</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-37.129999999999995</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
     </row>
@@ -36492,19 +38009,19 @@
         <v>63.19</v>
       </c>
       <c r="W46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18.329999999999998</v>
       </c>
       <c r="X46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-37</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-8.14</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.629999999999995</v>
       </c>
     </row>
@@ -36549,19 +38066,19 @@
         <v>59.49</v>
       </c>
       <c r="W47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.59</v>
       </c>
       <c r="X47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-20</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-18.159999999999997</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.690000000000005</v>
       </c>
     </row>
@@ -36606,19 +38123,19 @@
         <v>71.290000000000006</v>
       </c>
       <c r="W48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.6599999999999966</v>
       </c>
       <c r="X48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-36</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-15.629999999999999</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.310000000000009</v>
       </c>
     </row>
@@ -36663,19 +38180,19 @@
         <v>38.83</v>
       </c>
       <c r="W49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.950000000000003</v>
       </c>
       <c r="X49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.94000000000000483</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8.2800000000000011</v>
       </c>
     </row>
@@ -36720,19 +38237,19 @@
         <v>60.75</v>
       </c>
       <c r="W50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.3299999999999983</v>
       </c>
       <c r="X50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-32</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-11.670000000000002</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.729999999999997</v>
       </c>
     </row>
@@ -36777,19 +38294,19 @@
         <v>52.62</v>
       </c>
       <c r="W51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.5299999999999976</v>
       </c>
       <c r="X51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-34</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-18.709999999999997</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.699999999999996</v>
       </c>
     </row>
@@ -36834,19 +38351,19 @@
         <v>58.19</v>
       </c>
       <c r="W52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="X52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-54</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-11.779999999999994</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22.599999999999994</v>
       </c>
     </row>
@@ -36891,19 +38408,19 @@
         <v>51.6</v>
       </c>
       <c r="W53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.73</v>
       </c>
       <c r="X53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-7.4899999999999984</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.240000000000002</v>
       </c>
     </row>
@@ -36948,19 +38465,19 @@
         <v>64.95</v>
       </c>
       <c r="W54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26.67</v>
       </c>
       <c r="X54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-14</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15.229999999999997</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.5900000000000034</v>
       </c>
     </row>
@@ -37005,19 +38522,19 @@
         <v>55.52</v>
       </c>
       <c r="W55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="X55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-16</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-11.510000000000002</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.740000000000002</v>
       </c>
     </row>
@@ -37062,19 +38579,19 @@
         <v>55.5</v>
       </c>
       <c r="W56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-29</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-15.979999999999997</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11.75</v>
       </c>
     </row>
@@ -37119,19 +38636,19 @@
         <v>52.27</v>
       </c>
       <c r="W57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.3899999999999988</v>
       </c>
       <c r="X57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-13</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-10.240000000000002</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>
@@ -37176,19 +38693,19 @@
         <v>58.68</v>
       </c>
       <c r="W58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.6700000000000017</v>
       </c>
       <c r="X58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-30</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-20.270000000000003</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.200000000000003</v>
       </c>
     </row>
@@ -37233,19 +38750,19 @@
         <v>54.78</v>
       </c>
       <c r="W59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.66</v>
       </c>
       <c r="X59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-19</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-4.2799999999999976</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.29</v>
       </c>
     </row>
@@ -37290,19 +38807,19 @@
         <v>73.12</v>
       </c>
       <c r="W60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.670000000000002</v>
       </c>
       <c r="X60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-31</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-9.9699999999999989</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16.730000000000004</v>
       </c>
     </row>
@@ -37347,19 +38864,19 @@
         <v>52.75</v>
       </c>
       <c r="W61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.1400000000000006</v>
       </c>
       <c r="X61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-26</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-17.830000000000002</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10.950000000000003</v>
       </c>
     </row>
